--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghopark/Documents/GitHub/MDRO_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghopark/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6849FA-E299-8842-90B9-0FDC269698E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33820FC7-D706-E741-BAD2-E5DD3CBD6BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3000" windowWidth="38400" windowHeight="24000" tabRatio="998" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-3000" windowWidth="38400" windowHeight="24000" tabRatio="998" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly CMIP5 tasmax (C) " sheetId="9" r:id="rId1"/>
-    <sheet name="Monthly CMIP5 pr (mm)" sheetId="10" r:id="rId2"/>
+    <sheet name="Monthly CMIP5 pr (mm month)" sheetId="10" r:id="rId2"/>
     <sheet name="Avg GPCD of Year " sheetId="11" r:id="rId3"/>
-    <sheet name="Yearly Population RESIN" sheetId="13" r:id="rId4"/>
+    <sheet name="Yearly Population Study Are" sheetId="13" r:id="rId4"/>
     <sheet name="Yearly Population Tucson" sheetId="14" r:id="rId5"/>
     <sheet name="2007 Interim Guidelines" sheetId="15" r:id="rId6"/>
     <sheet name="Lake Mead simulation" sheetId="16" r:id="rId7"/>
@@ -81,6 +81,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8A3BABA1-C26C-C74F-B2E9-5ED83501CCBA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -229,30 +263,6 @@
     <t>miroc5.1.rcp85</t>
   </si>
   <si>
-    <t>miroc5.1.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp85.lower demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp26.lower demand</t>
-  </si>
-  <si>
     <t>Zone</t>
   </si>
   <si>
@@ -349,102 +359,6 @@
     <t>Detailed Simulation Results are Available upon Request for Research Purposes only.</t>
   </si>
   <si>
-    <t>csiro-mk3-6-0.1.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp26.lower demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp85.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp26.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp85.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp26.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp85.lower demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp26.lower demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp85.lower demand</t>
-  </si>
-  <si>
     <t>giss-e2-r.rcp26</t>
   </si>
   <si>
@@ -455,30 +369,6 @@
   </si>
   <si>
     <t>giss-e2-r.rcp85</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp26.higher demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp45.higher demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp60.higher demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp85.higher demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp26.lower demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp45.lower demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp60.lower demand</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp85.lower demand</t>
   </si>
   <si>
     <t>year</t>
@@ -498,6 +388,150 @@
   <si>
     <t>Available upon request for academic research purpose only.</t>
   </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp26.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp45.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp60.high GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp85.high GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp85.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp85.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp85.low GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp85.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp85.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp26.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp45.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp60.low GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp85.low GPCD</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +629,19 @@
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -750,17 +797,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1216,11 +1263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,16 +1326,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="S1" s="18" t="s">
         <v>14</v>
@@ -32997,6 +33044,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33005,7 +33053,7 @@
   <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33064,16 +33112,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="S1" s="18" t="s">
         <v>14</v>
@@ -64789,8 +64837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP39" sqref="AP39"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64816,148 +64864,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="AK1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="AL1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="AM1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AP1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AP1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="AR1" s="18" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="AS1" s="18" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="AU1" s="18" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AV1" s="18" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="AW1" s="18" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -69886,8 +69934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:AQ25"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69900,10 +69948,10 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C1" s="8">
         <v>2010</v>
@@ -70063,481 +70111,481 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10">
         <v>37005</v>
@@ -70665,10 +70713,10 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8">
         <v>2010</v>
@@ -70828,481 +70876,481 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C26" s="10">
         <v>37005</v>
@@ -71443,10 +71491,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71461,373 +71509,270 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="19">
-        <v>750000</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="19">
-        <f t="shared" ref="B3:B9" si="0">B2+($B$42-$B$2)/($A$42-$A$2)</f>
-        <v>763750</v>
+        <v>873750</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" si="0"/>
-        <v>777500</v>
+        <v>887500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="19">
-        <f t="shared" si="0"/>
-        <v>791250</v>
+        <v>901250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="19">
-        <f t="shared" si="0"/>
-        <v>805000</v>
+        <v>915000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="19">
-        <f t="shared" si="0"/>
-        <v>818750</v>
+        <v>928750</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="B8" s="19">
-        <f t="shared" si="0"/>
-        <v>832500</v>
+        <v>942500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="B9" s="19">
-        <f t="shared" si="0"/>
-        <v>846250</v>
+        <v>956250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="B10" s="19">
-        <f t="shared" ref="B10:B41" si="1">B9+($B$42-$B$2)/($A$42-$A$2)</f>
-        <v>860000</v>
+        <v>970000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="B11" s="19">
-        <f t="shared" si="1"/>
-        <v>873750</v>
+        <v>983750</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="B12" s="19">
-        <f t="shared" si="1"/>
-        <v>887500</v>
+        <v>997500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="B13" s="19">
-        <f t="shared" si="1"/>
-        <v>901250</v>
+        <v>1011250</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="B14" s="19">
-        <f t="shared" si="1"/>
-        <v>915000</v>
+        <v>1025000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="B15" s="19">
-        <f t="shared" si="1"/>
-        <v>928750</v>
+        <v>1038750</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="B16" s="19">
-        <f t="shared" si="1"/>
-        <v>942500</v>
+        <v>1052500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="B17" s="19">
-        <f t="shared" si="1"/>
-        <v>956250</v>
+        <v>1066250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="B18" s="19">
-        <f t="shared" si="1"/>
-        <v>970000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="B19" s="19">
-        <f t="shared" si="1"/>
-        <v>983750</v>
+        <v>1093750</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="B20" s="19">
-        <f t="shared" si="1"/>
-        <v>997500</v>
+        <v>1107500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="B21" s="19">
-        <f t="shared" si="1"/>
-        <v>1011250</v>
+        <v>1121250</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="B22" s="19">
-        <f t="shared" si="1"/>
-        <v>1025000</v>
+        <v>1135000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="B23" s="19">
-        <f t="shared" si="1"/>
-        <v>1038750</v>
+        <v>1148750</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="B24" s="19">
-        <f t="shared" si="1"/>
-        <v>1052500</v>
+        <v>1162500</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="B25" s="19">
-        <f t="shared" si="1"/>
-        <v>1066250</v>
+        <v>1176250</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="B26" s="19">
-        <f t="shared" si="1"/>
-        <v>1080000</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="B27" s="19">
-        <f t="shared" si="1"/>
-        <v>1093750</v>
+        <v>1203750</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="B28" s="19">
-        <f t="shared" si="1"/>
-        <v>1107500</v>
+        <v>1217500</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="B29" s="19">
-        <f t="shared" si="1"/>
-        <v>1121250</v>
+        <v>1231250</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="B30" s="19">
-        <f t="shared" si="1"/>
-        <v>1135000</v>
+        <v>1245000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="B31" s="19">
-        <f t="shared" si="1"/>
-        <v>1148750</v>
+        <v>1258750</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="B32" s="19">
-        <f t="shared" si="1"/>
-        <v>1162500</v>
+        <v>1272500</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="B33" s="19">
-        <f t="shared" si="1"/>
-        <v>1176250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>2042</v>
-      </c>
-      <c r="B34" s="19">
-        <f t="shared" si="1"/>
-        <v>1190000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>2043</v>
-      </c>
-      <c r="B35" s="19">
-        <f t="shared" si="1"/>
-        <v>1203750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>2044</v>
-      </c>
-      <c r="B36" s="19">
-        <f t="shared" si="1"/>
-        <v>1217500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>2045</v>
-      </c>
-      <c r="B37" s="19">
-        <f t="shared" si="1"/>
-        <v>1231250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
-        <v>2046</v>
-      </c>
-      <c r="B38" s="19">
-        <f t="shared" si="1"/>
-        <v>1245000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
-        <v>2047</v>
-      </c>
-      <c r="B39" s="19">
-        <f t="shared" si="1"/>
-        <v>1258750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
-        <v>2048</v>
-      </c>
-      <c r="B40" s="19">
-        <f t="shared" si="1"/>
-        <v>1272500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
-        <v>2049</v>
-      </c>
-      <c r="B41" s="19">
-        <f t="shared" si="1"/>
         <v>1286250</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
         <v>2050</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B34" s="20">
         <v>1300000</v>
       </c>
     </row>
@@ -71840,8 +71785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="Q9:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71853,32 +71798,32 @@
   <sheetData>
     <row r="9" spans="17:17" ht="23" x14ac:dyDescent="0.25">
       <c r="Q9" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="17:17" ht="23" x14ac:dyDescent="0.25">
       <c r="Q10" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="17:17" ht="23" x14ac:dyDescent="0.25">
       <c r="Q11" s="12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="17:17" ht="23" x14ac:dyDescent="0.25">
       <c r="Q12" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q15" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="17:17" x14ac:dyDescent="0.2">
@@ -71894,7 +71839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -71905,22 +71850,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -71936,7 +71881,7 @@
   <dimension ref="A30:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71951,17 +71896,17 @@
   <sheetData>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -71975,129 +71920,129 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="N1" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+      <c r="B1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="N2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="N2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -74409,123 +74354,123 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="N40" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
+      <c r="B40" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="N40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="N41" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
+      <c r="B41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="N41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M42" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N42" s="22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R42" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T42" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U42" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="W42" s="22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghopark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghopark/Documents/GitHub/MDRO_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33820FC7-D706-E741-BAD2-E5DD3CBD6BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92CCE2-F753-9F45-8FF7-59B03AC5826E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3000" windowWidth="38400" windowHeight="24000" tabRatio="998" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="998" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly CMIP5 tasmax (C) " sheetId="9" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
   <si>
     <t>Year</t>
   </si>
@@ -532,15 +532,82 @@
   <si>
     <t>miroc5.1.rcp85.low GPCD</t>
   </si>
+  <si>
+    <t>Climate model</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>2019--2026</t>
+  </si>
+  <si>
+    <t>2027--2034</t>
+  </si>
+  <si>
+    <t>2035--2042</t>
+  </si>
+  <si>
+    <t>2043--2050</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Tier1</t>
+  </si>
+  <si>
+    <t>Tier2</t>
+  </si>
+  <si>
+    <t>Tier3</t>
+  </si>
+  <si>
+    <t>(144,000 af)</t>
+  </si>
+  <si>
+    <t>(127,541 af)</t>
+  </si>
+  <si>
+    <t>(123,422 af)</t>
+  </si>
+  <si>
+    <t>(119,318 af)</t>
+  </si>
+  <si>
+    <t>CSIRO-mk-3-6-0</t>
+  </si>
+  <si>
+    <t>GFDL-CM3</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M</t>
+  </si>
+  <si>
+    <t>GISS-E2-R</t>
+  </si>
+  <si>
+    <t>MIROC5</t>
+  </si>
+  <si>
+    <t>MIROC-ESM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of Conditions </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,6 +710,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -682,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -729,6 +802,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,7 +877,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,18 +919,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -928,55 +1071,6 @@
         <a:xfrm>
           <a:off x="13385800" y="3479800"/>
           <a:ext cx="6832600" cy="5372100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>141492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2F7B82-23A0-534F-AE2D-5222D124DF48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9029700" cy="5831092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -64837,7 +64931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
@@ -70116,472 +70210,472 @@
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -70881,472 +70975,472 @@
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -71878,40 +71972,524 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A30:A32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="140.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="37">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37">
+        <v>3</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="37">
+        <v>4</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.1042</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="38">
+        <v>5</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E8" s="35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F10" s="34">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="37">
+        <v>3</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.1042</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="37">
+        <v>4</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="42">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0.64059999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="38">
+        <v>5</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0.96179999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="37">
+        <v>2</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="E15" s="34">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="37">
+        <v>3</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E16" s="34">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="F16" s="34">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="37">
+        <v>4</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.4531</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="F17" s="34">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.44790000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="38">
+        <v>5</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0.28910000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="37">
+        <v>2</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="42">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="F20" s="34">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.58560000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="37">
+        <v>3</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="42">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="F21" s="34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.83450000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="37">
+        <v>4</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="42">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E22" s="34">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F22" s="34">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="38">
+        <v>5</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -71926,56 +72504,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="N2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -74354,56 +74932,56 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="N40" s="26" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="N40" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="N41" s="25" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="N41" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janghopark/Documents/GitHub/MDRO_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92CCE2-F753-9F45-8FF7-59B03AC5826E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8612211-A44C-0D44-8C84-3D0C1EF8B720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="998" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-3000" windowWidth="38400" windowHeight="24000" tabRatio="998" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly CMIP5 tasmax (C) " sheetId="9" r:id="rId1"/>
@@ -389,150 +389,6 @@
     <t>Available upon request for academic research purpose only.</t>
   </si>
   <si>
-    <t>csiro-mk3-6-0.1.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp26.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp45.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp60.high GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp85.high GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>csiro-mk3-6-0.1.rcp85.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-cm3.1.rcp85.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>gfdl-esm2m.1.rcp85.low GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>giss-e2-r.rcp85.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc-esm-chem.1.rcp85.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp26.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp45.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp60.low GPCD</t>
-  </si>
-  <si>
-    <t>miroc5.1.rcp85.low GPCD</t>
-  </si>
-  <si>
     <t>Climate model</t>
   </si>
   <si>
@@ -598,6 +454,150 @@
   <si>
     <t xml:space="preserve">Probability of Conditions </t>
   </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp26.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp45.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp60.higher-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp85.higher-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>csiro-mk3-6-0.1.rcp85.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-cm3.1.rcp85.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>gfdl-esm2m.1.rcp85.lower-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>giss-e2-r.rcp85.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc-esm-chem.1.rcp85.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp26.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp45.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp60.lower-GPCD</t>
+  </si>
+  <si>
+    <t>miroc5.1.rcp85.lower-GPCD</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +605,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -916,6 +916,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,33 +940,18 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -64931,8 +64931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64958,148 +64958,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="AD1" s="18" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AE1" s="18" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AF1" s="18" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AG1" s="18" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AH1" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="AI1" s="18" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AL1" s="18" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AM1" s="18" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AO1" s="18" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AR1" s="18" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AS1" s="18" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AU1" s="18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AV1" s="18" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="AW1" s="18" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -70029,7 +70029,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70204,478 +70204,478 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -70969,478 +70969,478 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -71934,7 +71934,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71974,8 +71974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71987,485 +71987,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>121</v>
+      <c r="A2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>125</v>
+      <c r="A3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="36">
+      <c r="A4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="33">
         <v>2018</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37">
+      <c r="A5" s="25"/>
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="42">
+      <c r="C5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="28">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="28">
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37">
+      <c r="A6" s="25"/>
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="42">
+      <c r="C6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="35">
         <v>0.97570000000000001</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="28">
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37">
+      <c r="A7" s="25"/>
+      <c r="B7" s="31">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="C7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="35">
         <v>0.89580000000000004</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="28">
         <v>0.1042</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="38">
+      <c r="A8" s="26"/>
+      <c r="B8" s="32">
         <v>5</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="43">
+      <c r="C8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="36">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="29">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <v>0</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="30">
         <v>1</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="33">
         <v>2018</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="34">
         <v>1</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="27">
         <v>0</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="27">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="37">
+      <c r="A10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="31">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="42">
+      <c r="C10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="35">
         <v>0.54859999999999998</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="28">
         <v>0.22220000000000001</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="28">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>0.1875</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="37">
+      <c r="A11" s="25"/>
+      <c r="B11" s="31">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="42">
+      <c r="C11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="35">
         <v>0.31769999999999998</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="28">
         <v>0.1042</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>0.5625</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37">
+      <c r="A12" s="25"/>
+      <c r="B12" s="31">
         <v>4</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="42">
+      <c r="C12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="35">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="28">
         <v>0.12670000000000001</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="28">
         <v>0.17710000000000001</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="28">
         <v>0.64059999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="38">
+      <c r="A13" s="26"/>
+      <c r="B13" s="32">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="43">
+      <c r="C13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="36">
         <v>0</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="29">
         <v>0.96179999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="36">
+      <c r="A14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="33">
         <v>2018</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="34">
         <v>1</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="27">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37">
+      <c r="A15" s="25"/>
+      <c r="B15" s="31">
         <v>2</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="42">
+      <c r="C15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="35">
         <v>0.59379999999999999</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="28">
         <v>0.15629999999999999</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="28">
         <v>0.1719</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="37">
+      <c r="A16" s="25"/>
+      <c r="B16" s="31">
         <v>3</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="42">
+      <c r="C16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="35">
         <v>0.65100000000000002</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="28">
         <v>0.1719</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="37">
+      <c r="A17" s="25"/>
+      <c r="B17" s="31">
         <v>4</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="42">
+      <c r="C17" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="35">
         <v>0.4531</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="28">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="28">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="28">
         <v>0.44790000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38">
+      <c r="A18" s="26"/>
+      <c r="B18" s="32">
         <v>5</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="43">
+      <c r="C18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="36">
         <v>0.62760000000000005</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="29">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="29">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="29">
         <v>0.28910000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="36">
+      <c r="A19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="30">
         <v>1</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="33">
         <v>2018</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="34">
         <v>1</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="27">
         <v>0</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="27">
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="37">
+      <c r="A20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="31">
         <v>2</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="42">
+      <c r="C20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="35">
         <v>0.24540000000000001</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="28">
         <v>0.12959999999999999</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="28">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="28">
         <v>0.58560000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="37">
+      <c r="A21" s="25"/>
+      <c r="B21" s="31">
         <v>3</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="42">
+      <c r="C21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="35">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="28">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="28">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="28">
         <v>0.83450000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="37">
+      <c r="A22" s="25"/>
+      <c r="B22" s="31">
         <v>4</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="42">
+      <c r="C22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="35">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="28">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="28">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="28">
         <v>0.96060000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="38">
+      <c r="A23" s="26"/>
+      <c r="B23" s="32">
         <v>5</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="43">
+      <c r="C23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="29">
         <v>0</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="29">
         <v>0</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="29">
         <v>1</v>
       </c>
     </row>
@@ -72504,56 +72504,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="N2" s="27" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="N2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -74932,56 +74932,56 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="N40" s="28" t="s">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="N40" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="N41" s="27" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="N41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
